--- a/meta/num_communities.xlsx
+++ b/meta/num_communities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zande\Documents\tweet-proj\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C15A0E9-669D-4FCD-B3ED-423B880E2988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B744A6-CE19-4845-8EB2-744E38F1B311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="num_communities" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="233">
   <si>
     <t>period</t>
   </si>
@@ -722,6 +722,15 @@
   </si>
   <si>
     <t>Member of Parliament</t>
+  </si>
+  <si>
+    <t>isMonth</t>
+  </si>
+  <si>
+    <t>avg_tweets_month</t>
+  </si>
+  <si>
+    <t>avg_communities_month</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1220,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1568,11 +1578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I532"/>
+  <dimension ref="A1:N532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,9 +1596,10 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1616,8 +1627,11 @@
       <c r="I1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1645,8 +1659,22 @@
       <c r="I2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="b">
+        <f>COUNTIF(K$2:K$7,E2)&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGEIF(J:J,TRUE,H:H)</f>
+        <v>138.18361581920905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1674,8 +1702,22 @@
       <c r="I3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="b">
+        <f>COUNTIF(K$2:K$7,E3)&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>232</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGEIF(J:J,TRUE,F:F)</f>
+        <v>4.6525423728813555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1703,8 +1745,15 @@
       <c r="I4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="b">
+        <f t="shared" ref="J4:J67" si="0">COUNTIF(K$2:K$7,E4)&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1732,8 +1781,15 @@
       <c r="I5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1761,8 +1817,15 @@
       <c r="I6" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1790,8 +1853,15 @@
       <c r="I7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1819,8 +1889,12 @@
       <c r="I8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1848,8 +1922,12 @@
       <c r="I9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1877,8 +1955,12 @@
       <c r="I10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1906,8 +1988,12 @@
       <c r="I11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1935,8 +2021,12 @@
       <c r="I12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1964,8 +2054,12 @@
       <c r="I13" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2087,12 @@
       <c r="I14" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2022,8 +2120,12 @@
       <c r="I15" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2051,8 +2153,12 @@
       <c r="I16" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2080,8 +2186,12 @@
       <c r="I17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2109,8 +2219,12 @@
       <c r="I18" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2138,8 +2252,12 @@
       <c r="I19" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2164,8 +2282,12 @@
       <c r="H20">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2190,8 +2312,12 @@
       <c r="H21">
         <v>175</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2216,8 +2342,12 @@
       <c r="H22">
         <v>414</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2242,8 +2372,12 @@
       <c r="H23">
         <v>269</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2268,8 +2402,12 @@
       <c r="H24">
         <v>337</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2294,8 +2432,12 @@
       <c r="H25">
         <v>324</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2320,8 +2462,12 @@
       <c r="H26">
         <v>1650</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2346,8 +2492,12 @@
       <c r="H27">
         <v>720</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2372,8 +2522,12 @@
       <c r="H28">
         <v>930</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2401,8 +2555,12 @@
       <c r="I29" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2430,8 +2588,12 @@
       <c r="I30" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2459,8 +2621,12 @@
       <c r="I31" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2488,8 +2654,12 @@
       <c r="I32" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2517,8 +2687,12 @@
       <c r="I33" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2546,8 +2720,12 @@
       <c r="I34" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2575,8 +2753,12 @@
       <c r="I35" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2604,8 +2786,12 @@
       <c r="I36" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2819,12 @@
       <c r="I37" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2662,8 +2852,12 @@
       <c r="I38" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2691,8 +2885,12 @@
       <c r="I39" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2720,8 +2918,12 @@
       <c r="I40" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2749,8 +2951,12 @@
       <c r="I41" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2778,8 +2984,12 @@
       <c r="I42" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2807,8 +3017,12 @@
       <c r="I43" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -2836,8 +3050,12 @@
       <c r="I44" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2865,8 +3083,12 @@
       <c r="I45" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -2894,8 +3116,12 @@
       <c r="I46" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -2923,8 +3149,12 @@
       <c r="I47" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -2952,8 +3182,12 @@
       <c r="I48" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -2981,8 +3215,12 @@
       <c r="I49" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -3010,8 +3248,12 @@
       <c r="I50" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3039,8 +3281,12 @@
       <c r="I51" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -3068,8 +3314,12 @@
       <c r="I52" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -3097,8 +3347,12 @@
       <c r="I53" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -3126,8 +3380,12 @@
       <c r="I54" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -3155,8 +3413,12 @@
       <c r="I55" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -3181,8 +3443,12 @@
       <c r="H56">
         <v>171</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -3207,8 +3473,12 @@
       <c r="H57">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -3233,8 +3503,12 @@
       <c r="H58">
         <v>317</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -3259,8 +3533,12 @@
       <c r="H59">
         <v>357</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -3285,8 +3563,12 @@
       <c r="H60">
         <v>310</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -3311,8 +3593,12 @@
       <c r="H61">
         <v>268</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -3337,8 +3623,12 @@
       <c r="H62">
         <v>1537</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -3363,8 +3653,12 @@
       <c r="H63">
         <v>602</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3389,8 +3683,12 @@
       <c r="H64">
         <v>935</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -3415,8 +3713,12 @@
       <c r="H65">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -3441,8 +3743,12 @@
       <c r="H66">
         <v>114</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -3467,8 +3773,12 @@
       <c r="H67">
         <v>184</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -3493,8 +3803,12 @@
       <c r="H68">
         <v>135</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" t="b">
+        <f t="shared" ref="J68:J131" si="1">COUNTIF(K$2:K$7,E68)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -3519,8 +3833,12 @@
       <c r="H69">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -3545,8 +3863,12 @@
       <c r="H70">
         <v>150</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -3571,8 +3893,12 @@
       <c r="H71">
         <v>914</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -3597,8 +3923,12 @@
       <c r="H72">
         <v>424</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -3623,8 +3953,12 @@
       <c r="H73">
         <v>490</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -3652,8 +3986,12 @@
       <c r="I74" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -3681,8 +4019,12 @@
       <c r="I75" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -3710,8 +4052,12 @@
       <c r="I76" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -3739,8 +4085,12 @@
       <c r="I77" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -3768,8 +4118,12 @@
       <c r="I78" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -3797,8 +4151,12 @@
       <c r="I79" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -3826,8 +4184,12 @@
       <c r="I80" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -3855,8 +4217,12 @@
       <c r="I81" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -3884,8 +4250,12 @@
       <c r="I82" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -3913,8 +4283,12 @@
       <c r="I83" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>44</v>
       </c>
@@ -3942,8 +4316,12 @@
       <c r="I84" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -3971,8 +4349,12 @@
       <c r="I85" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -4000,8 +4382,12 @@
       <c r="I86" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -4029,8 +4415,12 @@
       <c r="I87" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -4058,8 +4448,12 @@
       <c r="I88" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -4087,8 +4481,12 @@
       <c r="I89" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>44</v>
       </c>
@@ -4116,8 +4514,12 @@
       <c r="I90" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -4145,8 +4547,12 @@
       <c r="I91" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -4174,8 +4580,12 @@
       <c r="I92" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>46</v>
       </c>
@@ -4203,8 +4613,12 @@
       <c r="I93" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>46</v>
       </c>
@@ -4232,8 +4646,12 @@
       <c r="I94" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -4261,8 +4679,12 @@
       <c r="I95" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>46</v>
       </c>
@@ -4290,8 +4712,12 @@
       <c r="I96" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>46</v>
       </c>
@@ -4319,8 +4745,12 @@
       <c r="I97" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -4348,8 +4778,12 @@
       <c r="I98" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -4377,8 +4811,12 @@
       <c r="I99" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -4406,8 +4844,12 @@
       <c r="I100" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>51</v>
       </c>
@@ -4435,8 +4877,12 @@
       <c r="I101" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -4464,8 +4910,12 @@
       <c r="I102" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -4493,8 +4943,12 @@
       <c r="I103" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -4522,8 +4976,12 @@
       <c r="I104" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -4551,8 +5009,12 @@
       <c r="I105" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>51</v>
       </c>
@@ -4580,8 +5042,12 @@
       <c r="I106" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>51</v>
       </c>
@@ -4609,8 +5075,12 @@
       <c r="I107" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>51</v>
       </c>
@@ -4638,8 +5108,12 @@
       <c r="I108" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>51</v>
       </c>
@@ -4667,8 +5141,12 @@
       <c r="I109" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>55</v>
       </c>
@@ -4696,8 +5174,12 @@
       <c r="I110" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>55</v>
       </c>
@@ -4725,8 +5207,12 @@
       <c r="I111" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>55</v>
       </c>
@@ -4754,8 +5240,12 @@
       <c r="I112" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>55</v>
       </c>
@@ -4783,8 +5273,12 @@
       <c r="I113" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>55</v>
       </c>
@@ -4812,8 +5306,12 @@
       <c r="I114" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>55</v>
       </c>
@@ -4841,8 +5339,12 @@
       <c r="I115" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>55</v>
       </c>
@@ -4870,8 +5372,12 @@
       <c r="I116" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>55</v>
       </c>
@@ -4899,8 +5405,12 @@
       <c r="I117" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>55</v>
       </c>
@@ -4928,8 +5438,12 @@
       <c r="I118" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>58</v>
       </c>
@@ -4957,8 +5471,12 @@
       <c r="I119" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>58</v>
       </c>
@@ -4986,8 +5504,12 @@
       <c r="I120" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>58</v>
       </c>
@@ -5015,8 +5537,12 @@
       <c r="I121" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>58</v>
       </c>
@@ -5044,8 +5570,12 @@
       <c r="I122" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>58</v>
       </c>
@@ -5073,8 +5603,12 @@
       <c r="I123" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>58</v>
       </c>
@@ -5102,8 +5636,12 @@
       <c r="I124" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>58</v>
       </c>
@@ -5131,8 +5669,12 @@
       <c r="I125" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>58</v>
       </c>
@@ -5160,8 +5702,12 @@
       <c r="I126" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -5189,8 +5735,12 @@
       <c r="I127" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -5218,8 +5768,12 @@
       <c r="I128" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>61</v>
       </c>
@@ -5247,8 +5801,12 @@
       <c r="I129" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>61</v>
       </c>
@@ -5276,8 +5834,12 @@
       <c r="I130" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>61</v>
       </c>
@@ -5305,8 +5867,12 @@
       <c r="I131" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>61</v>
       </c>
@@ -5334,8 +5900,12 @@
       <c r="I132" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132" t="b">
+        <f t="shared" ref="J132:J195" si="2">COUNTIF(K$2:K$7,E132)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>61</v>
       </c>
@@ -5363,8 +5933,12 @@
       <c r="I133" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>61</v>
       </c>
@@ -5392,8 +5966,12 @@
       <c r="I134" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>61</v>
       </c>
@@ -5421,8 +5999,12 @@
       <c r="I135" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>61</v>
       </c>
@@ -5450,8 +6032,12 @@
       <c r="I136" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>64</v>
       </c>
@@ -5479,8 +6065,12 @@
       <c r="I137" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>64</v>
       </c>
@@ -5508,8 +6098,12 @@
       <c r="I138" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>64</v>
       </c>
@@ -5537,8 +6131,12 @@
       <c r="I139" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>64</v>
       </c>
@@ -5566,8 +6164,12 @@
       <c r="I140" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>64</v>
       </c>
@@ -5595,8 +6197,12 @@
       <c r="I141" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>64</v>
       </c>
@@ -5624,8 +6230,12 @@
       <c r="I142" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>64</v>
       </c>
@@ -5653,8 +6263,12 @@
       <c r="I143" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>64</v>
       </c>
@@ -5682,8 +6296,12 @@
       <c r="I144" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>64</v>
       </c>
@@ -5711,8 +6329,12 @@
       <c r="I145" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>65</v>
       </c>
@@ -5740,8 +6362,12 @@
       <c r="I146" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>65</v>
       </c>
@@ -5769,8 +6395,12 @@
       <c r="I147" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>65</v>
       </c>
@@ -5798,8 +6428,12 @@
       <c r="I148" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>65</v>
       </c>
@@ -5827,8 +6461,12 @@
       <c r="I149" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6494,12 @@
       <c r="I150" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>65</v>
       </c>
@@ -5885,8 +6527,12 @@
       <c r="I151" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>65</v>
       </c>
@@ -5914,8 +6560,12 @@
       <c r="I152" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>65</v>
       </c>
@@ -5943,8 +6593,12 @@
       <c r="I153" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>65</v>
       </c>
@@ -5972,8 +6626,12 @@
       <c r="I154" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>216</v>
       </c>
@@ -6001,8 +6659,12 @@
       <c r="I155" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -6030,8 +6692,12 @@
       <c r="I156" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>216</v>
       </c>
@@ -6059,8 +6725,12 @@
       <c r="I157" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>216</v>
       </c>
@@ -6088,8 +6758,12 @@
       <c r="I158" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>216</v>
       </c>
@@ -6117,8 +6791,12 @@
       <c r="I159" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>216</v>
       </c>
@@ -6146,8 +6824,12 @@
       <c r="I160" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>216</v>
       </c>
@@ -6175,8 +6857,12 @@
       <c r="I161" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>216</v>
       </c>
@@ -6204,8 +6890,12 @@
       <c r="I162" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>216</v>
       </c>
@@ -6233,8 +6923,12 @@
       <c r="I163" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>217</v>
       </c>
@@ -6262,8 +6956,12 @@
       <c r="I164" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>217</v>
       </c>
@@ -6291,8 +6989,12 @@
       <c r="I165" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>217</v>
       </c>
@@ -6320,8 +7022,12 @@
       <c r="I166" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>217</v>
       </c>
@@ -6349,8 +7055,12 @@
       <c r="I167" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>217</v>
       </c>
@@ -6378,8 +7088,12 @@
       <c r="I168" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>217</v>
       </c>
@@ -6407,8 +7121,12 @@
       <c r="I169" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>217</v>
       </c>
@@ -6436,8 +7154,12 @@
       <c r="I170" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>217</v>
       </c>
@@ -6465,8 +7187,12 @@
       <c r="I171" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>217</v>
       </c>
@@ -6494,8 +7220,12 @@
       <c r="I172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>67</v>
       </c>
@@ -6523,8 +7253,12 @@
       <c r="I173" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>67</v>
       </c>
@@ -6552,8 +7286,12 @@
       <c r="I174" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>67</v>
       </c>
@@ -6581,8 +7319,12 @@
       <c r="I175" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>67</v>
       </c>
@@ -6610,8 +7352,12 @@
       <c r="I176" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>67</v>
       </c>
@@ -6639,8 +7385,12 @@
       <c r="I177" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>67</v>
       </c>
@@ -6668,8 +7418,12 @@
       <c r="I178" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>67</v>
       </c>
@@ -6697,8 +7451,12 @@
       <c r="I179" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>67</v>
       </c>
@@ -6726,8 +7484,12 @@
       <c r="I180" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>67</v>
       </c>
@@ -6755,8 +7517,12 @@
       <c r="I181" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>72</v>
       </c>
@@ -6784,8 +7550,12 @@
       <c r="I182" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>72</v>
       </c>
@@ -6813,8 +7583,12 @@
       <c r="I183" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>72</v>
       </c>
@@ -6842,8 +7616,12 @@
       <c r="I184" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>72</v>
       </c>
@@ -6871,8 +7649,12 @@
       <c r="I185" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>72</v>
       </c>
@@ -6900,8 +7682,12 @@
       <c r="I186" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>72</v>
       </c>
@@ -6929,8 +7715,12 @@
       <c r="I187" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>72</v>
       </c>
@@ -6958,8 +7748,12 @@
       <c r="I188" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>72</v>
       </c>
@@ -6987,8 +7781,12 @@
       <c r="I189" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>72</v>
       </c>
@@ -7016,8 +7814,12 @@
       <c r="I190" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>73</v>
       </c>
@@ -7045,8 +7847,12 @@
       <c r="I191" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>73</v>
       </c>
@@ -7074,8 +7880,12 @@
       <c r="I192" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>73</v>
       </c>
@@ -7103,8 +7913,12 @@
       <c r="I193" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>73</v>
       </c>
@@ -7132,8 +7946,12 @@
       <c r="I194" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>73</v>
       </c>
@@ -7161,8 +7979,12 @@
       <c r="I195" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>73</v>
       </c>
@@ -7190,8 +8012,12 @@
       <c r="I196" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196" t="b">
+        <f t="shared" ref="J196:J259" si="3">COUNTIF(K$2:K$7,E196)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>73</v>
       </c>
@@ -7219,8 +8045,12 @@
       <c r="I197" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>73</v>
       </c>
@@ -7248,8 +8078,12 @@
       <c r="I198" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>73</v>
       </c>
@@ -7277,8 +8111,12 @@
       <c r="I199" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J199" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>76</v>
       </c>
@@ -7306,8 +8144,12 @@
       <c r="I200" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>76</v>
       </c>
@@ -7335,8 +8177,12 @@
       <c r="I201" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>76</v>
       </c>
@@ -7364,8 +8210,12 @@
       <c r="I202" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>76</v>
       </c>
@@ -7393,8 +8243,12 @@
       <c r="I203" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>76</v>
       </c>
@@ -7422,8 +8276,12 @@
       <c r="I204" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>76</v>
       </c>
@@ -7451,8 +8309,12 @@
       <c r="I205" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J205" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>76</v>
       </c>
@@ -7480,8 +8342,12 @@
       <c r="I206" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>76</v>
       </c>
@@ -7509,8 +8375,12 @@
       <c r="I207" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>76</v>
       </c>
@@ -7538,8 +8408,12 @@
       <c r="I208" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>78</v>
       </c>
@@ -7567,8 +8441,12 @@
       <c r="I209" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>78</v>
       </c>
@@ -7596,8 +8474,12 @@
       <c r="I210" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>78</v>
       </c>
@@ -7625,8 +8507,12 @@
       <c r="I211" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>78</v>
       </c>
@@ -7654,8 +8540,12 @@
       <c r="I212" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>78</v>
       </c>
@@ -7683,8 +8573,12 @@
       <c r="I213" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>78</v>
       </c>
@@ -7712,8 +8606,12 @@
       <c r="I214" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>78</v>
       </c>
@@ -7741,8 +8639,12 @@
       <c r="I215" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>78</v>
       </c>
@@ -7770,8 +8672,12 @@
       <c r="I216" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>78</v>
       </c>
@@ -7799,8 +8705,12 @@
       <c r="I217" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>80</v>
       </c>
@@ -7828,8 +8738,12 @@
       <c r="I218" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>80</v>
       </c>
@@ -7857,8 +8771,12 @@
       <c r="I219" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>80</v>
       </c>
@@ -7886,8 +8804,12 @@
       <c r="I220" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>80</v>
       </c>
@@ -7915,8 +8837,12 @@
       <c r="I221" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>80</v>
       </c>
@@ -7944,8 +8870,12 @@
       <c r="I222" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>80</v>
       </c>
@@ -7973,8 +8903,12 @@
       <c r="I223" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>80</v>
       </c>
@@ -8002,8 +8936,12 @@
       <c r="I224" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>80</v>
       </c>
@@ -8031,8 +8969,12 @@
       <c r="I225" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>80</v>
       </c>
@@ -8060,8 +9002,12 @@
       <c r="I226" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>82</v>
       </c>
@@ -8089,8 +9035,12 @@
       <c r="I227" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>82</v>
       </c>
@@ -8118,8 +9068,12 @@
       <c r="I228" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>82</v>
       </c>
@@ -8147,8 +9101,12 @@
       <c r="I229" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>82</v>
       </c>
@@ -8176,8 +9134,12 @@
       <c r="I230" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>82</v>
       </c>
@@ -8205,8 +9167,12 @@
       <c r="I231" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>82</v>
       </c>
@@ -8234,8 +9200,12 @@
       <c r="I232" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>82</v>
       </c>
@@ -8263,8 +9233,12 @@
       <c r="I233" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>82</v>
       </c>
@@ -8292,8 +9266,12 @@
       <c r="I234" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>82</v>
       </c>
@@ -8321,8 +9299,12 @@
       <c r="I235" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>84</v>
       </c>
@@ -8350,8 +9332,12 @@
       <c r="I236" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>84</v>
       </c>
@@ -8379,8 +9365,12 @@
       <c r="I237" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>84</v>
       </c>
@@ -8408,8 +9398,12 @@
       <c r="I238" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>84</v>
       </c>
@@ -8437,8 +9431,12 @@
       <c r="I239" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>84</v>
       </c>
@@ -8466,8 +9464,12 @@
       <c r="I240" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>84</v>
       </c>
@@ -8495,8 +9497,12 @@
       <c r="I241" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>84</v>
       </c>
@@ -8524,8 +9530,12 @@
       <c r="I242" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>84</v>
       </c>
@@ -8553,8 +9563,12 @@
       <c r="I243" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>84</v>
       </c>
@@ -8582,8 +9596,12 @@
       <c r="I244" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>86</v>
       </c>
@@ -8611,8 +9629,12 @@
       <c r="I245" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>86</v>
       </c>
@@ -8640,8 +9662,12 @@
       <c r="I246" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>86</v>
       </c>
@@ -8669,8 +9695,12 @@
       <c r="I247" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>86</v>
       </c>
@@ -8698,8 +9728,12 @@
       <c r="I248" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>86</v>
       </c>
@@ -8727,8 +9761,12 @@
       <c r="I249" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>86</v>
       </c>
@@ -8756,8 +9794,12 @@
       <c r="I250" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>86</v>
       </c>
@@ -8785,8 +9827,12 @@
       <c r="I251" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>86</v>
       </c>
@@ -8814,8 +9860,12 @@
       <c r="I252" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>86</v>
       </c>
@@ -8843,8 +9893,12 @@
       <c r="I253" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>88</v>
       </c>
@@ -8872,8 +9926,12 @@
       <c r="I254" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>88</v>
       </c>
@@ -8901,8 +9959,12 @@
       <c r="I255" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>88</v>
       </c>
@@ -8930,8 +9992,12 @@
       <c r="I256" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>88</v>
       </c>
@@ -8959,8 +10025,12 @@
       <c r="I257" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>88</v>
       </c>
@@ -8988,8 +10058,12 @@
       <c r="I258" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>88</v>
       </c>
@@ -9017,8 +10091,12 @@
       <c r="I259" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>88</v>
       </c>
@@ -9046,8 +10124,12 @@
       <c r="I260" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260" t="b">
+        <f t="shared" ref="J260:J323" si="4">COUNTIF(K$2:K$7,E260)&gt;0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>88</v>
       </c>
@@ -9075,8 +10157,12 @@
       <c r="I261" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>88</v>
       </c>
@@ -9104,8 +10190,12 @@
       <c r="I262" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -9133,8 +10223,12 @@
       <c r="I263" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -9162,8 +10256,12 @@
       <c r="I264" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -9191,8 +10289,12 @@
       <c r="I265" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -9220,8 +10322,12 @@
       <c r="I266" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -9249,8 +10355,12 @@
       <c r="I267" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -9278,8 +10388,12 @@
       <c r="I268" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -9307,8 +10421,12 @@
       <c r="I269" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -9336,8 +10454,12 @@
       <c r="I270" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -9365,8 +10487,12 @@
       <c r="I271" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>92</v>
       </c>
@@ -9394,8 +10520,12 @@
       <c r="I272" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J272" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>92</v>
       </c>
@@ -9423,8 +10553,12 @@
       <c r="I273" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>92</v>
       </c>
@@ -9452,8 +10586,12 @@
       <c r="I274" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>92</v>
       </c>
@@ -9481,8 +10619,12 @@
       <c r="I275" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>92</v>
       </c>
@@ -9510,8 +10652,12 @@
       <c r="I276" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>92</v>
       </c>
@@ -9539,8 +10685,12 @@
       <c r="I277" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>92</v>
       </c>
@@ -9568,8 +10718,12 @@
       <c r="I278" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>92</v>
       </c>
@@ -9597,8 +10751,12 @@
       <c r="I279" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J279" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>92</v>
       </c>
@@ -9626,8 +10784,12 @@
       <c r="I280" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>96</v>
       </c>
@@ -9655,8 +10817,12 @@
       <c r="I281" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>96</v>
       </c>
@@ -9684,8 +10850,12 @@
       <c r="I282" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>96</v>
       </c>
@@ -9713,8 +10883,12 @@
       <c r="I283" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>96</v>
       </c>
@@ -9742,8 +10916,12 @@
       <c r="I284" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>96</v>
       </c>
@@ -9771,8 +10949,12 @@
       <c r="I285" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J285" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>96</v>
       </c>
@@ -9800,8 +10982,12 @@
       <c r="I286" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>96</v>
       </c>
@@ -9829,8 +11015,12 @@
       <c r="I287" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>96</v>
       </c>
@@ -9858,8 +11048,12 @@
       <c r="I288" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J288" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>96</v>
       </c>
@@ -9887,8 +11081,12 @@
       <c r="I289" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>98</v>
       </c>
@@ -9916,8 +11114,12 @@
       <c r="I290" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J290" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>98</v>
       </c>
@@ -9945,8 +11147,12 @@
       <c r="I291" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>98</v>
       </c>
@@ -9974,8 +11180,12 @@
       <c r="I292" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J292" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>98</v>
       </c>
@@ -10003,8 +11213,12 @@
       <c r="I293" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J293" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>98</v>
       </c>
@@ -10032,8 +11246,12 @@
       <c r="I294" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J294" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>98</v>
       </c>
@@ -10061,8 +11279,12 @@
       <c r="I295" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J295" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>98</v>
       </c>
@@ -10090,8 +11312,12 @@
       <c r="I296" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J296" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>98</v>
       </c>
@@ -10119,8 +11345,12 @@
       <c r="I297" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J297" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>98</v>
       </c>
@@ -10148,8 +11378,12 @@
       <c r="I298" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J298" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>109</v>
       </c>
@@ -10177,8 +11411,12 @@
       <c r="I299" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J299" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>109</v>
       </c>
@@ -10206,8 +11444,12 @@
       <c r="I300" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>109</v>
       </c>
@@ -10235,8 +11477,12 @@
       <c r="I301" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>109</v>
       </c>
@@ -10264,8 +11510,12 @@
       <c r="I302" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J302" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>109</v>
       </c>
@@ -10293,8 +11543,12 @@
       <c r="I303" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>109</v>
       </c>
@@ -10322,8 +11576,12 @@
       <c r="I304" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>109</v>
       </c>
@@ -10351,8 +11609,12 @@
       <c r="I305" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>109</v>
       </c>
@@ -10380,8 +11642,12 @@
       <c r="I306" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>109</v>
       </c>
@@ -10409,8 +11675,12 @@
       <c r="I307" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J307" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>112</v>
       </c>
@@ -10438,8 +11708,12 @@
       <c r="I308" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J308" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>112</v>
       </c>
@@ -10467,8 +11741,12 @@
       <c r="I309" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J309" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>112</v>
       </c>
@@ -10496,8 +11774,12 @@
       <c r="I310" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J310" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>112</v>
       </c>
@@ -10525,8 +11807,12 @@
       <c r="I311" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J311" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>112</v>
       </c>
@@ -10554,8 +11840,12 @@
       <c r="I312" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J312" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>112</v>
       </c>
@@ -10583,8 +11873,12 @@
       <c r="I313" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J313" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>112</v>
       </c>
@@ -10612,8 +11906,12 @@
       <c r="I314" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J314" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>112</v>
       </c>
@@ -10641,8 +11939,12 @@
       <c r="I315" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J315" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>112</v>
       </c>
@@ -10670,8 +11972,12 @@
       <c r="I316" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J316" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>115</v>
       </c>
@@ -10699,8 +12005,12 @@
       <c r="I317" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J317" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>115</v>
       </c>
@@ -10728,8 +12038,12 @@
       <c r="I318" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J318" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>115</v>
       </c>
@@ -10757,8 +12071,12 @@
       <c r="I319" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J319" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>115</v>
       </c>
@@ -10786,8 +12104,12 @@
       <c r="I320" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J320" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>115</v>
       </c>
@@ -10815,8 +12137,12 @@
       <c r="I321" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J321" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>115</v>
       </c>
@@ -10844,8 +12170,12 @@
       <c r="I322" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J322" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>115</v>
       </c>
@@ -10873,8 +12203,12 @@
       <c r="I323" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J323" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>115</v>
       </c>
@@ -10902,8 +12236,12 @@
       <c r="I324" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J324" t="b">
+        <f t="shared" ref="J324:J387" si="5">COUNTIF(K$2:K$7,E324)&gt;0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>115</v>
       </c>
@@ -10931,8 +12269,12 @@
       <c r="I325" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J325" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>118</v>
       </c>
@@ -10960,8 +12302,12 @@
       <c r="I326" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J326" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>118</v>
       </c>
@@ -10989,8 +12335,12 @@
       <c r="I327" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J327" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>118</v>
       </c>
@@ -11018,8 +12368,12 @@
       <c r="I328" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J328" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>118</v>
       </c>
@@ -11047,8 +12401,12 @@
       <c r="I329" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J329" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>118</v>
       </c>
@@ -11076,8 +12434,12 @@
       <c r="I330" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J330" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>118</v>
       </c>
@@ -11105,8 +12467,12 @@
       <c r="I331" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J331" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>118</v>
       </c>
@@ -11134,8 +12500,12 @@
       <c r="I332" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J332" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>118</v>
       </c>
@@ -11163,8 +12533,12 @@
       <c r="I333" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J333" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>118</v>
       </c>
@@ -11192,8 +12566,12 @@
       <c r="I334" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J334" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>136</v>
       </c>
@@ -11221,8 +12599,12 @@
       <c r="I335" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J335" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>136</v>
       </c>
@@ -11250,8 +12632,12 @@
       <c r="I336" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J336" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>136</v>
       </c>
@@ -11279,8 +12665,12 @@
       <c r="I337" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J337" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>136</v>
       </c>
@@ -11308,8 +12698,12 @@
       <c r="I338" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J338" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>136</v>
       </c>
@@ -11337,8 +12731,12 @@
       <c r="I339" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J339" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>136</v>
       </c>
@@ -11366,8 +12764,12 @@
       <c r="I340" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J340" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>136</v>
       </c>
@@ -11395,8 +12797,12 @@
       <c r="I341" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J341" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>136</v>
       </c>
@@ -11424,8 +12830,12 @@
       <c r="I342" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J342" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>136</v>
       </c>
@@ -11453,8 +12863,12 @@
       <c r="I343" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J343" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>141</v>
       </c>
@@ -11482,8 +12896,12 @@
       <c r="I344" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J344" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>141</v>
       </c>
@@ -11511,8 +12929,12 @@
       <c r="I345" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J345" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>141</v>
       </c>
@@ -11540,8 +12962,12 @@
       <c r="I346" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J346" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>141</v>
       </c>
@@ -11569,8 +12995,12 @@
       <c r="I347" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J347" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>141</v>
       </c>
@@ -11598,8 +13028,12 @@
       <c r="I348" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J348" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>141</v>
       </c>
@@ -11627,8 +13061,12 @@
       <c r="I349" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J349" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>141</v>
       </c>
@@ -11656,8 +13094,12 @@
       <c r="I350" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J350" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>141</v>
       </c>
@@ -11685,8 +13127,12 @@
       <c r="I351" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J351" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>141</v>
       </c>
@@ -11714,8 +13160,12 @@
       <c r="I352" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J352" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>143</v>
       </c>
@@ -11743,8 +13193,12 @@
       <c r="I353" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J353" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>143</v>
       </c>
@@ -11772,8 +13226,12 @@
       <c r="I354" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J354" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>143</v>
       </c>
@@ -11801,8 +13259,12 @@
       <c r="I355" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J355" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>143</v>
       </c>
@@ -11830,8 +13292,12 @@
       <c r="I356" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J356" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>143</v>
       </c>
@@ -11859,8 +13325,12 @@
       <c r="I357" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J357" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>143</v>
       </c>
@@ -11888,8 +13358,12 @@
       <c r="I358" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J358" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>143</v>
       </c>
@@ -11917,8 +13391,12 @@
       <c r="I359" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J359" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>143</v>
       </c>
@@ -11946,8 +13424,12 @@
       <c r="I360" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J360" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>143</v>
       </c>
@@ -11975,8 +13457,12 @@
       <c r="I361" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J361" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>149</v>
       </c>
@@ -12004,8 +13490,12 @@
       <c r="I362" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J362" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>149</v>
       </c>
@@ -12033,8 +13523,12 @@
       <c r="I363" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J363" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>149</v>
       </c>
@@ -12062,8 +13556,12 @@
       <c r="I364" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J364" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>149</v>
       </c>
@@ -12091,8 +13589,12 @@
       <c r="I365" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J365" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>149</v>
       </c>
@@ -12120,8 +13622,12 @@
       <c r="I366" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J366" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>149</v>
       </c>
@@ -12149,8 +13655,12 @@
       <c r="I367" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J367" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>149</v>
       </c>
@@ -12178,8 +13688,12 @@
       <c r="I368" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J368" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>149</v>
       </c>
@@ -12207,8 +13721,12 @@
       <c r="I369" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J369" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>149</v>
       </c>
@@ -12236,8 +13754,12 @@
       <c r="I370" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J370" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>152</v>
       </c>
@@ -12265,8 +13787,12 @@
       <c r="I371" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J371" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>152</v>
       </c>
@@ -12294,8 +13820,12 @@
       <c r="I372" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J372" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>152</v>
       </c>
@@ -12323,8 +13853,12 @@
       <c r="I373" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J373" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>152</v>
       </c>
@@ -12352,8 +13886,12 @@
       <c r="I374" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J374" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>152</v>
       </c>
@@ -12381,8 +13919,12 @@
       <c r="I375" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J375" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>152</v>
       </c>
@@ -12410,8 +13952,12 @@
       <c r="I376" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J376" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>152</v>
       </c>
@@ -12439,8 +13985,12 @@
       <c r="I377" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J377" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>152</v>
       </c>
@@ -12468,8 +14018,12 @@
       <c r="I378" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J378" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>152</v>
       </c>
@@ -12497,8 +14051,12 @@
       <c r="I379" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J379" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>155</v>
       </c>
@@ -12526,8 +14084,12 @@
       <c r="I380" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J380" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>155</v>
       </c>
@@ -12555,8 +14117,12 @@
       <c r="I381" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J381" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>155</v>
       </c>
@@ -12584,8 +14150,12 @@
       <c r="I382" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J382" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>155</v>
       </c>
@@ -12613,8 +14183,12 @@
       <c r="I383" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J383" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>155</v>
       </c>
@@ -12642,8 +14216,12 @@
       <c r="I384" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J384" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>155</v>
       </c>
@@ -12671,8 +14249,12 @@
       <c r="I385" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J385" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>155</v>
       </c>
@@ -12700,8 +14282,12 @@
       <c r="I386" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J386" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>155</v>
       </c>
@@ -12729,8 +14315,12 @@
       <c r="I387" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J387" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>155</v>
       </c>
@@ -12758,8 +14348,12 @@
       <c r="I388" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J388" t="b">
+        <f t="shared" ref="J388:J451" si="6">COUNTIF(K$2:K$7,E388)&gt;0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>162</v>
       </c>
@@ -12787,8 +14381,12 @@
       <c r="I389" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J389" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>162</v>
       </c>
@@ -12816,8 +14414,12 @@
       <c r="I390" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J390" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>162</v>
       </c>
@@ -12845,8 +14447,12 @@
       <c r="I391" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J391" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>162</v>
       </c>
@@ -12874,8 +14480,12 @@
       <c r="I392" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J392" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>162</v>
       </c>
@@ -12903,8 +14513,12 @@
       <c r="I393" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J393" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>162</v>
       </c>
@@ -12932,8 +14546,12 @@
       <c r="I394" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J394" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>162</v>
       </c>
@@ -12961,8 +14579,12 @@
       <c r="I395" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J395" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>162</v>
       </c>
@@ -12990,8 +14612,12 @@
       <c r="I396" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J396" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>162</v>
       </c>
@@ -13019,8 +14645,12 @@
       <c r="I397" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J397" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>165</v>
       </c>
@@ -13048,8 +14678,12 @@
       <c r="I398" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J398" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>165</v>
       </c>
@@ -13077,8 +14711,12 @@
       <c r="I399" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J399" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>165</v>
       </c>
@@ -13106,8 +14744,12 @@
       <c r="I400" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J400" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>165</v>
       </c>
@@ -13135,8 +14777,12 @@
       <c r="I401" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J401" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>165</v>
       </c>
@@ -13164,8 +14810,12 @@
       <c r="I402" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J402" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>165</v>
       </c>
@@ -13193,8 +14843,12 @@
       <c r="I403" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J403" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>165</v>
       </c>
@@ -13222,8 +14876,12 @@
       <c r="I404" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J404" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>165</v>
       </c>
@@ -13251,8 +14909,12 @@
       <c r="I405" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J405" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>165</v>
       </c>
@@ -13280,8 +14942,12 @@
       <c r="I406" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J406" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>167</v>
       </c>
@@ -13309,8 +14975,12 @@
       <c r="I407" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J407" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>167</v>
       </c>
@@ -13338,8 +15008,12 @@
       <c r="I408" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J408" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>167</v>
       </c>
@@ -13367,8 +15041,12 @@
       <c r="I409" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J409" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>167</v>
       </c>
@@ -13396,8 +15074,12 @@
       <c r="I410" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J410" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>167</v>
       </c>
@@ -13425,8 +15107,12 @@
       <c r="I411" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J411" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>167</v>
       </c>
@@ -13454,8 +15140,12 @@
       <c r="I412" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J412" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>167</v>
       </c>
@@ -13483,8 +15173,12 @@
       <c r="I413" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J413" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>167</v>
       </c>
@@ -13512,8 +15206,12 @@
       <c r="I414" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J414" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>167</v>
       </c>
@@ -13541,8 +15239,12 @@
       <c r="I415" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J415" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>176</v>
       </c>
@@ -13570,8 +15272,12 @@
       <c r="I416" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J416" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>176</v>
       </c>
@@ -13599,8 +15305,12 @@
       <c r="I417" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J417" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>176</v>
       </c>
@@ -13628,8 +15338,12 @@
       <c r="I418" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J418" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>176</v>
       </c>
@@ -13657,8 +15371,12 @@
       <c r="I419" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J419" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>176</v>
       </c>
@@ -13686,8 +15404,12 @@
       <c r="I420" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J420" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>176</v>
       </c>
@@ -13715,8 +15437,12 @@
       <c r="I421" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J421" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>176</v>
       </c>
@@ -13744,8 +15470,12 @@
       <c r="I422" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J422" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>176</v>
       </c>
@@ -13773,8 +15503,12 @@
       <c r="I423" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J423" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>176</v>
       </c>
@@ -13802,8 +15536,12 @@
       <c r="I424" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J424" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>174</v>
       </c>
@@ -13831,8 +15569,12 @@
       <c r="I425" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J425" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>174</v>
       </c>
@@ -13860,8 +15602,12 @@
       <c r="I426" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J426" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>174</v>
       </c>
@@ -13889,8 +15635,12 @@
       <c r="I427" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J427" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>174</v>
       </c>
@@ -13918,8 +15668,12 @@
       <c r="I428" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J428" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>174</v>
       </c>
@@ -13947,8 +15701,12 @@
       <c r="I429" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J429" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>174</v>
       </c>
@@ -13976,8 +15734,12 @@
       <c r="I430" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J430" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>174</v>
       </c>
@@ -14005,8 +15767,12 @@
       <c r="I431" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J431" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>174</v>
       </c>
@@ -14034,8 +15800,12 @@
       <c r="I432" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J432" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>174</v>
       </c>
@@ -14063,8 +15833,12 @@
       <c r="I433" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J433" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>178</v>
       </c>
@@ -14092,8 +15866,12 @@
       <c r="I434" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J434" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>178</v>
       </c>
@@ -14121,8 +15899,12 @@
       <c r="I435" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J435" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>178</v>
       </c>
@@ -14150,8 +15932,12 @@
       <c r="I436" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J436" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>178</v>
       </c>
@@ -14179,8 +15965,12 @@
       <c r="I437" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J437" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>178</v>
       </c>
@@ -14208,8 +15998,12 @@
       <c r="I438" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J438" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>178</v>
       </c>
@@ -14237,8 +16031,12 @@
       <c r="I439" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J439" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>178</v>
       </c>
@@ -14266,8 +16064,12 @@
       <c r="I440" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J440" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>178</v>
       </c>
@@ -14295,8 +16097,12 @@
       <c r="I441" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J441" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>178</v>
       </c>
@@ -14324,8 +16130,12 @@
       <c r="I442" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J442" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>181</v>
       </c>
@@ -14353,8 +16163,12 @@
       <c r="I443" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J443" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>181</v>
       </c>
@@ -14382,8 +16196,12 @@
       <c r="I444" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J444" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>181</v>
       </c>
@@ -14411,8 +16229,12 @@
       <c r="I445" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J445" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>181</v>
       </c>
@@ -14440,8 +16262,12 @@
       <c r="I446" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J446" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>181</v>
       </c>
@@ -14469,8 +16295,12 @@
       <c r="I447" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J447" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>181</v>
       </c>
@@ -14498,8 +16328,12 @@
       <c r="I448" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J448" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>181</v>
       </c>
@@ -14527,8 +16361,12 @@
       <c r="I449" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J449" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>181</v>
       </c>
@@ -14556,8 +16394,12 @@
       <c r="I450" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J450" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>181</v>
       </c>
@@ -14585,8 +16427,12 @@
       <c r="I451" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J451" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>183</v>
       </c>
@@ -14614,8 +16460,12 @@
       <c r="I452" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J452" t="b">
+        <f t="shared" ref="J452:J515" si="7">COUNTIF(K$2:K$7,E452)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>183</v>
       </c>
@@ -14643,8 +16493,12 @@
       <c r="I453" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J453" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>183</v>
       </c>
@@ -14672,8 +16526,12 @@
       <c r="I454" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J454" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>183</v>
       </c>
@@ -14701,8 +16559,12 @@
       <c r="I455" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J455" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>183</v>
       </c>
@@ -14730,8 +16592,12 @@
       <c r="I456" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J456" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>183</v>
       </c>
@@ -14759,8 +16625,12 @@
       <c r="I457" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J457" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>183</v>
       </c>
@@ -14788,8 +16658,12 @@
       <c r="I458" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J458" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>183</v>
       </c>
@@ -14817,8 +16691,12 @@
       <c r="I459" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J459" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>183</v>
       </c>
@@ -14846,8 +16724,12 @@
       <c r="I460" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J460" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>186</v>
       </c>
@@ -14875,8 +16757,12 @@
       <c r="I461" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J461" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>186</v>
       </c>
@@ -14904,8 +16790,12 @@
       <c r="I462" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J462" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>186</v>
       </c>
@@ -14933,8 +16823,12 @@
       <c r="I463" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J463" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>186</v>
       </c>
@@ -14962,8 +16856,12 @@
       <c r="I464" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J464" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>186</v>
       </c>
@@ -14991,8 +16889,12 @@
       <c r="I465" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J465" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>186</v>
       </c>
@@ -15020,8 +16922,12 @@
       <c r="I466" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J466" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>186</v>
       </c>
@@ -15049,8 +16955,12 @@
       <c r="I467" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J467" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>186</v>
       </c>
@@ -15078,8 +16988,12 @@
       <c r="I468" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J468" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>186</v>
       </c>
@@ -15107,8 +17021,12 @@
       <c r="I469" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J469" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>189</v>
       </c>
@@ -15136,8 +17054,12 @@
       <c r="I470" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J470" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>189</v>
       </c>
@@ -15165,8 +17087,12 @@
       <c r="I471" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J471" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>189</v>
       </c>
@@ -15194,8 +17120,12 @@
       <c r="I472" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J472" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>189</v>
       </c>
@@ -15223,8 +17153,12 @@
       <c r="I473" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J473" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>189</v>
       </c>
@@ -15252,8 +17186,12 @@
       <c r="I474" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J474" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>189</v>
       </c>
@@ -15281,8 +17219,12 @@
       <c r="I475" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J475" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>189</v>
       </c>
@@ -15310,8 +17252,12 @@
       <c r="I476" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J476" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>189</v>
       </c>
@@ -15339,8 +17285,12 @@
       <c r="I477" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J477" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>189</v>
       </c>
@@ -15368,8 +17318,12 @@
       <c r="I478" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J478" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>192</v>
       </c>
@@ -15397,8 +17351,12 @@
       <c r="I479" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J479" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>192</v>
       </c>
@@ -15426,8 +17384,12 @@
       <c r="I480" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J480" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>192</v>
       </c>
@@ -15455,8 +17417,12 @@
       <c r="I481" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J481" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>192</v>
       </c>
@@ -15484,8 +17450,12 @@
       <c r="I482" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J482" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>192</v>
       </c>
@@ -15513,8 +17483,12 @@
       <c r="I483" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J483" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>192</v>
       </c>
@@ -15542,8 +17516,12 @@
       <c r="I484" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J484" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>192</v>
       </c>
@@ -15571,8 +17549,12 @@
       <c r="I485" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J485" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>192</v>
       </c>
@@ -15600,8 +17582,12 @@
       <c r="I486" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J486" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>192</v>
       </c>
@@ -15629,8 +17615,12 @@
       <c r="I487" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J487" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>194</v>
       </c>
@@ -15658,8 +17648,12 @@
       <c r="I488" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J488" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>194</v>
       </c>
@@ -15687,8 +17681,12 @@
       <c r="I489" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J489" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>194</v>
       </c>
@@ -15716,8 +17714,12 @@
       <c r="I490" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J490" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>194</v>
       </c>
@@ -15745,8 +17747,12 @@
       <c r="I491" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J491" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>194</v>
       </c>
@@ -15774,8 +17780,12 @@
       <c r="I492" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J492" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>194</v>
       </c>
@@ -15803,8 +17813,12 @@
       <c r="I493" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J493" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>194</v>
       </c>
@@ -15832,8 +17846,12 @@
       <c r="I494" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J494" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>194</v>
       </c>
@@ -15861,8 +17879,12 @@
       <c r="I495" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J495" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>194</v>
       </c>
@@ -15890,8 +17912,12 @@
       <c r="I496" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J496" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>197</v>
       </c>
@@ -15919,8 +17945,12 @@
       <c r="I497" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J497" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>197</v>
       </c>
@@ -15948,8 +17978,12 @@
       <c r="I498" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J498" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>197</v>
       </c>
@@ -15977,8 +18011,12 @@
       <c r="I499" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J499" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>197</v>
       </c>
@@ -16006,8 +18044,12 @@
       <c r="I500" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J500" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>197</v>
       </c>
@@ -16035,8 +18077,12 @@
       <c r="I501" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J501" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>197</v>
       </c>
@@ -16064,8 +18110,12 @@
       <c r="I502" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J502" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>197</v>
       </c>
@@ -16093,8 +18143,12 @@
       <c r="I503" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J503" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>197</v>
       </c>
@@ -16122,8 +18176,12 @@
       <c r="I504" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J504" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>197</v>
       </c>
@@ -16151,8 +18209,12 @@
       <c r="I505" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J505" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>200</v>
       </c>
@@ -16180,8 +18242,12 @@
       <c r="I506" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J506" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>200</v>
       </c>
@@ -16209,8 +18275,12 @@
       <c r="I507" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J507" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>200</v>
       </c>
@@ -16238,8 +18308,12 @@
       <c r="I508" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J508" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>200</v>
       </c>
@@ -16267,8 +18341,12 @@
       <c r="I509" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J509" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>200</v>
       </c>
@@ -16296,8 +18374,12 @@
       <c r="I510" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J510" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>200</v>
       </c>
@@ -16325,8 +18407,12 @@
       <c r="I511" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J511" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>200</v>
       </c>
@@ -16354,8 +18440,12 @@
       <c r="I512" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J512" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>200</v>
       </c>
@@ -16383,8 +18473,12 @@
       <c r="I513" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J513" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>200</v>
       </c>
@@ -16412,8 +18506,12 @@
       <c r="I514" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J514" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>204</v>
       </c>
@@ -16441,8 +18539,12 @@
       <c r="I515" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J515" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>204</v>
       </c>
@@ -16470,8 +18572,12 @@
       <c r="I516" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J516" t="b">
+        <f t="shared" ref="J516:J531" si="8">COUNTIF(K$2:K$7,E516)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>204</v>
       </c>
@@ -16499,8 +18605,12 @@
       <c r="I517" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J517" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>204</v>
       </c>
@@ -16528,8 +18638,12 @@
       <c r="I518" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J518" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>204</v>
       </c>
@@ -16557,8 +18671,12 @@
       <c r="I519" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J519" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>204</v>
       </c>
@@ -16586,8 +18704,12 @@
       <c r="I520" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J520" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>204</v>
       </c>
@@ -16615,8 +18737,12 @@
       <c r="I521" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J521" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>204</v>
       </c>
@@ -16644,8 +18770,12 @@
       <c r="I522" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J522" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>204</v>
       </c>
@@ -16673,13 +18803,17 @@
       <c r="I523" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J523" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>208</v>
       </c>
       <c r="B524" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C524" t="s">
         <v>207</v>
@@ -16702,13 +18836,17 @@
       <c r="I524" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J524" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>208</v>
       </c>
       <c r="B525" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C525" t="s">
         <v>207</v>
@@ -16731,13 +18869,17 @@
       <c r="I525" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J525" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>208</v>
       </c>
       <c r="B526" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C526" t="s">
         <v>207</v>
@@ -16760,13 +18902,17 @@
       <c r="I526" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J526" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>208</v>
       </c>
       <c r="B527" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C527" t="s">
         <v>207</v>
@@ -16789,13 +18935,17 @@
       <c r="I527" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J527" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>208</v>
       </c>
       <c r="B528" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C528" t="s">
         <v>207</v>
@@ -16818,13 +18968,17 @@
       <c r="I528" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J528" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>208</v>
       </c>
       <c r="B529" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C529" t="s">
         <v>207</v>
@@ -16847,13 +19001,17 @@
       <c r="I529" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J529" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>208</v>
       </c>
       <c r="B530" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C530" t="s">
         <v>207</v>
@@ -16876,13 +19034,17 @@
       <c r="I530" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J530" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>208</v>
       </c>
       <c r="B531" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C531" t="s">
         <v>207</v>
@@ -16905,13 +19067,17 @@
       <c r="I531" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J531" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>208</v>
       </c>
       <c r="B532" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C532" t="s">
         <v>207</v>
@@ -16933,6 +19099,10 @@
       </c>
       <c r="I532" t="s">
         <v>170</v>
+      </c>
+      <c r="J532" t="b">
+        <f>COUNTIF(E524:E530,E532)&gt;0</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17069,7 +19239,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H160 H162:H227 H245 H295 H319:H320 H370:H371 H391 H410 H428:H429 H481:H487 H497 H502:H509 H513:H1048576 H479 H470:H472 H434 H425 H416 H407 H398 H389 H380 H362 H353 H344 H335 H326 H317 H308 H299 H290 H272 H263 H254 H236 I1 H489:H494">
+  <conditionalFormatting sqref="H1:H160 H162:H227 H245 H295 H319:H320 H370:H371 H391 H410 H428:H429 H481:H487 H497 H502:H509 H513:H1048576 H479 H470:H472 H434 H425 H416 H407 H398 H389 H380 H362 H353 H344 H335 H326 H317 H308 H299 H290 H272 H263 H254 H236 H489:H494 I1:J1">
     <cfRule type="colorScale" priority="3328">
       <colorScale>
         <cfvo type="min"/>
@@ -17269,7 +19439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55826047-5FCB-42ED-A7B6-E562E1C463A8}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/meta/num_communities.xlsx
+++ b/meta/num_communities.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d2c170805775222/Documents/tweet-proj/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{8F7D40F4-A6B1-4D74-AA8F-5A2144DC9C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8C7792B-A203-452F-920F-A5C4A41EDFF9}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{8F7D40F4-A6B1-4D74-AA8F-5A2144DC9C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{191B8C14-87DE-4A39-A1A1-E372F09D05B9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="num_communities" sheetId="1" r:id="rId1"/>
     <sheet name="num_communities_only" sheetId="6" r:id="rId2"/>
     <sheet name="covid_mentions" sheetId="7" r:id="rId3"/>
     <sheet name="covid_cases_monthly" sheetId="8" r:id="rId4"/>
-    <sheet name="accounts_gathered" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="accounts_gathered" sheetId="2" r:id="rId5"/>
     <sheet name="failed" sheetId="3" state="hidden" r:id="rId6"/>
     <sheet name="random words and samples" sheetId="5" r:id="rId7"/>
     <sheet name="trump_gpt2_50runs" sheetId="4" state="hidden" r:id="rId8"/>
@@ -29693,7 +29693,7 @@
   </sheetPr>
   <dimension ref="A1:L532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H532" sqref="H532"/>
     </sheetView>
   </sheetViews>
@@ -50189,8 +50189,8 @@
   </sheetPr>
   <dimension ref="A1:I311"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="H297" sqref="H297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59402,7 +59402,7 @@
       </c>
       <c r="H297" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[username]],accounts_gathered!B:B,accounts_gathered!E:E)</f>
-        <v>Republican</v>
+        <v>Democrat</v>
       </c>
       <c r="I297" s="5">
         <f>Table1[[#This Row],[num_covid_tweets]]/Table1[[#This Row],[total_num_tweets]]</f>
@@ -59433,7 +59433,7 @@
       </c>
       <c r="H298" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[username]],accounts_gathered!B:B,accounts_gathered!E:E)</f>
-        <v>Republican</v>
+        <v>Democrat</v>
       </c>
       <c r="I298" s="5">
         <f>Table1[[#This Row],[num_covid_tweets]]/Table1[[#This Row],[total_num_tweets]]</f>
@@ -59464,7 +59464,7 @@
       </c>
       <c r="H299" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[username]],accounts_gathered!B:B,accounts_gathered!E:E)</f>
-        <v>Republican</v>
+        <v>Democrat</v>
       </c>
       <c r="I299" s="5">
         <f>Table1[[#This Row],[num_covid_tweets]]/Table1[[#This Row],[total_num_tweets]]</f>
@@ -59495,7 +59495,7 @@
       </c>
       <c r="H300" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[username]],accounts_gathered!B:B,accounts_gathered!E:E)</f>
-        <v>Republican</v>
+        <v>Democrat</v>
       </c>
       <c r="I300" s="5">
         <f>Table1[[#This Row],[num_covid_tweets]]/Table1[[#This Row],[total_num_tweets]]</f>
@@ -59526,7 +59526,7 @@
       </c>
       <c r="H301" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[username]],accounts_gathered!B:B,accounts_gathered!E:E)</f>
-        <v>Republican</v>
+        <v>Democrat</v>
       </c>
       <c r="I301" s="5">
         <f>Table1[[#This Row],[num_covid_tweets]]/Table1[[#This Row],[total_num_tweets]]</f>
@@ -63747,8 +63747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55826047-5FCB-42ED-A7B6-E562E1C463A8}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63987,7 +63987,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
